--- a/exports/segment_level_id_0043_neg_sadness_analysis.xlsx
+++ b/exports/segment_level_id_0043_neg_sadness_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Hume sadness Score</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Praat Label</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -468,6 +473,11 @@
       <c r="D2" t="n">
         <v>0.024</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -482,6 +492,11 @@
       <c r="D3" t="n">
         <v>0.05</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -496,6 +511,11 @@
       <c r="D4" t="n">
         <v>0.036</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -510,6 +530,11 @@
       <c r="D5" t="n">
         <v>0.122</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -524,6 +549,11 @@
       <c r="D6" t="n">
         <v>0.03</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -538,6 +568,11 @@
       <c r="D7" t="n">
         <v>0.066</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -552,6 +587,11 @@
       <c r="D8" t="n">
         <v>0.054</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -566,6 +606,11 @@
       <c r="D9" t="n">
         <v>0.103</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -580,6 +625,11 @@
       <c r="D10" t="n">
         <v>0.058</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -594,6 +644,11 @@
       <c r="D11" t="n">
         <v>0.073</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -608,6 +663,11 @@
       <c r="D12" t="n">
         <v>0.025</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -622,6 +682,11 @@
       <c r="D13" t="n">
         <v>0.151</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -636,6 +701,11 @@
       <c r="D14" t="n">
         <v>0.038</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -650,6 +720,11 @@
       <c r="D15" t="n">
         <v>0.185</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -664,6 +739,11 @@
       <c r="D16" t="n">
         <v>0.023</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -678,6 +758,11 @@
       <c r="D17" t="n">
         <v>0.041</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -692,6 +777,11 @@
       <c r="D18" t="n">
         <v>0.045</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -706,6 +796,11 @@
       <c r="D19" t="n">
         <v>0.022</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -720,6 +815,11 @@
       <c r="D20" t="n">
         <v>0.037</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -734,6 +834,11 @@
       <c r="D21" t="n">
         <v>0.125</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -748,6 +853,11 @@
       <c r="D22" t="n">
         <v>0.123</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -762,6 +872,11 @@
       <c r="D23" t="n">
         <v>0.017</v>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -776,6 +891,11 @@
       <c r="D24" t="n">
         <v>0.536</v>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -790,6 +910,11 @@
       <c r="D25" t="n">
         <v>0.138</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -804,6 +929,11 @@
       <c r="D26" t="n">
         <v>0.14</v>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -818,6 +948,11 @@
       <c r="D27" t="n">
         <v>0.237</v>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -832,6 +967,11 @@
       <c r="D28" t="n">
         <v>0.073</v>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -846,6 +986,11 @@
       <c r="D29" t="n">
         <v>0.184</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -860,6 +1005,11 @@
       <c r="D30" t="n">
         <v>0.278</v>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -873,6 +1023,11 @@
       </c>
       <c r="D31" t="n">
         <v>0.245</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
       </c>
     </row>
   </sheetData>
